--- a/tests/untitled.xlsx
+++ b/tests/untitled.xlsx
@@ -8729,7 +8729,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8708463851</v>
+        <v>100.8708463851</v>
       </c>
     </row>
     <row r="5">
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8712413305</v>
+        <v>100.8712413305</v>
       </c>
     </row>
     <row r="17">
@@ -9809,7 +9809,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>109.8076132678</v>
+        <v>9.807613267800001</v>
       </c>
     </row>
     <row r="50">
@@ -10097,7 +10097,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>109.8081118507</v>
+        <v>9.8081118507</v>
       </c>
     </row>
     <row r="62">
@@ -61703,7 +61703,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>DEAD</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -61731,7 +61731,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>DEAD</t>
         </is>
       </c>
       <c r="C3" t="n">
